--- a/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz91.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz91.xlsx
@@ -52,11 +52,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -387,13 +387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F366" sqref="F366:AA366"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>91</v>
       </c>
@@ -458,7 +458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>91</v>
       </c>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>91</v>
       </c>
@@ -615,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>91</v>
       </c>
@@ -692,7 +692,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>91</v>
       </c>
@@ -769,7 +769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>91</v>
       </c>
@@ -846,7 +846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>91</v>
       </c>
@@ -929,7 +929,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>91</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>91</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>91</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>91</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>91</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>91</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>91</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>91</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>91</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>91</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>91</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>91</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>91</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>91</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>91</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>91</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>91</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>91</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>91</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>91</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>91</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>91</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>91</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>91</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>91</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>91</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>91</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>91</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>91</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>91</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>91</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>91</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>91</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>91</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>91</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>91</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>91</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>91</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>91</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>91</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>91</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>91</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>91</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>91</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>91</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>91</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>91</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>91</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>91</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>91</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>91</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>91</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>91</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>91</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>91</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>91</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>91</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>91</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>91</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>91</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>91</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>91</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>91</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>91</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>91</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>91</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>91</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>91</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>91</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>91</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>91</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>91</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>91</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>91</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>91</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>91</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>91</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>91</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>91</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>91</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>91</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>91</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>91</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>91</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>91</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>91</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>91</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>91</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>91</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>91</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>91</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>91</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>91</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>91</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>91</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>91</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>91</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>91</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>91</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>91</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>91</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>91</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>91</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>91</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>91</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>91</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>91</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>91</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>91</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>91</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>91</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>91</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>91</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>91</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>91</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>91</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>91</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>91</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>91</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>91</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>91</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>91</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>91</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>91</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>91</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>91</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>91</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>91</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>91</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>91</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>91</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>91</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>91</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>91</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>91</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>91</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>91</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>91</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>91</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>91</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>91</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>91</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>91</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>91</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>91</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>91</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>91</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>91</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>91</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>91</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>91</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>91</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>91</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>91</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>91</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>91</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>91</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>91</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>91</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>91</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>91</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>91</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>91</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>91</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>91</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>91</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>91</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>91</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>91</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>91</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>91</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>91</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>91</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>91</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>91</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>91</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>91</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>91</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>91</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>91</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>91</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>91</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>91</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>91</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>91</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>91</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>91</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>91</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>91</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>91</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>91</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>91</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>91</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>91</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>91</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>91</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>91</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>91</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>91</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>91</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>91</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>91</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>91</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>91</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>91</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>91</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>91</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>91</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>91</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>91</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>91</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>91</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>91</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>91</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>91</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>91</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>91</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>91</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>91</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>91</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>91</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>91</v>
       </c>
@@ -18570,7 +18570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>91</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>91</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>91</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>91</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>91</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>91</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>91</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>91</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>91</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>91</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>91</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>91</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>91</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>91</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>91</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>91</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>91</v>
       </c>
@@ -19915,7 +19915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>91</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>91</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>91</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>91</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>91</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>91</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>91</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>91</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>91</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>91</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>91</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>91</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>91</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>91</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>91</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>91</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>91</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>91</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>91</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>91</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>91</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>91</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>91</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>91</v>
       </c>
@@ -21781,7 +21781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>91</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>91</v>
       </c>
@@ -21938,7 +21938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>91</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>91</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>91</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>91</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>91</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>91</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>91</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>91</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>91</v>
       </c>
@@ -22640,7 +22640,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>91</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>91</v>
       </c>
@@ -22794,7 +22794,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>91</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>91</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>91</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>91</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>91</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>91</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>91</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>91</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>91</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>91</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>91</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>91</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>91</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>91</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>91</v>
       </c>
@@ -23964,7 +23964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>91</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>91</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>91</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>91</v>
       </c>
@@ -24269,7 +24269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>91</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>91</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>91</v>
       </c>
@@ -24500,7 +24500,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>91</v>
       </c>
@@ -24577,7 +24577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>91</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>91</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>91</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>91</v>
       </c>
@@ -24894,7 +24894,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>91</v>
       </c>
@@ -24974,7 +24974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>91</v>
       </c>
@@ -25054,7 +25054,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>91</v>
       </c>
@@ -25134,7 +25134,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>91</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>91</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>91</v>
       </c>
@@ -25374,7 +25374,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>91</v>
       </c>
@@ -25457,7 +25457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>91</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>91</v>
       </c>
@@ -25608,7 +25608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>91</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>91</v>
       </c>
@@ -25762,7 +25762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>91</v>
       </c>
@@ -25842,7 +25842,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>91</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>91</v>
       </c>
@@ -25996,7 +25996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>91</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>91</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>91</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>91</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>91</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>91</v>
       </c>
@@ -26467,7 +26467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>91</v>
       </c>
@@ -26547,7 +26547,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>91</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>91</v>
       </c>
@@ -26707,7 +26707,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>91</v>
       </c>
@@ -26787,7 +26787,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>91</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>91</v>
       </c>
@@ -26941,7 +26941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>91</v>
       </c>
@@ -27018,7 +27018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>91</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>91</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>91</v>
       </c>
@@ -27255,7 +27255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>91</v>
       </c>
@@ -27332,7 +27332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>91</v>
       </c>
@@ -27409,7 +27409,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>91</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>91</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>91</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>91</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>91</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>91</v>
       </c>
@@ -27895,7 +27895,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>91</v>
       </c>
@@ -27978,7 +27978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>91</v>
       </c>
@@ -28055,7 +28055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>91</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>91</v>
       </c>
@@ -28209,7 +28209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>91</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>91</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>91</v>
       </c>
@@ -28443,7 +28443,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>91</v>
       </c>
@@ -28526,7 +28526,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>91</v>
       </c>
@@ -28606,7 +28606,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>91</v>
       </c>
@@ -28683,7 +28683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>91</v>
       </c>
@@ -28760,7 +28760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>91</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>91</v>
       </c>
@@ -28923,7 +28923,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>91</v>
       </c>
@@ -29003,7 +29003,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>91</v>
       </c>
@@ -29080,7 +29080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27">
       <c r="A366">
         <v>91</v>
       </c>
@@ -29095,66 +29095,6 @@
       </c>
       <c r="E366">
         <v>6</v>
-      </c>
-      <c r="F366">
-        <v>15</v>
-      </c>
-      <c r="G366">
-        <v>9</v>
-      </c>
-      <c r="H366">
-        <v>3</v>
-      </c>
-      <c r="I366">
-        <v>-2</v>
-      </c>
-      <c r="J366">
-        <v>-5</v>
-      </c>
-      <c r="K366">
-        <v>-8</v>
-      </c>
-      <c r="L366">
-        <v>57</v>
-      </c>
-      <c r="M366">
-        <v>36</v>
-      </c>
-      <c r="N366">
-        <v>13</v>
-      </c>
-      <c r="O366">
-        <v>1019</v>
-      </c>
-      <c r="P366">
-        <v>1017</v>
-      </c>
-      <c r="Q366">
-        <v>1015</v>
-      </c>
-      <c r="R366">
-        <v>19</v>
-      </c>
-      <c r="S366">
-        <v>11</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>26</v>
-      </c>
-      <c r="V366">
-        <v>8</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>1</v>
-      </c>
-      <c r="AA366">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -29168,7 +29108,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29180,7 +29120,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
